--- a/Meta-analysis/csvs/GoodPapers.xlsx
+++ b/Meta-analysis/csvs/GoodPapers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="311">
   <si>
     <t>video estimates of red snapper and associated fish assemblages on sand, shell, and natural reef habitats in the north-central gulf of mexico</t>
   </si>
@@ -243,12 +243,6 @@
   </si>
   <si>
     <t>Effect of trawling on juvenile red snapper (Lutjanus campechanus) habitat selection and life history parameters</t>
-  </si>
-  <si>
-    <t>effect of hypoxia on the distribution of fishes associated with a petroleum platform off coastal louisiana</t>
-  </si>
-  <si>
-    <t>Effect of hypoxia on the distribution of fishes associated with a petroleum platform off coastal Louisiana</t>
   </si>
   <si>
     <t>depth and artificial reef type effects on size and distribution of red snapper in the northern gulf of mexico</t>
@@ -692,13 +686,7 @@
     <t>significant in 1 of 40 cells</t>
   </si>
   <si>
-    <t>bycatch</t>
-  </si>
-  <si>
     <t>reef type</t>
-  </si>
-  <si>
-    <t>-88 W, 30N</t>
   </si>
   <si>
     <t>reef depth</t>
@@ -1355,6 +1343,225 @@
       <t xml:space="preserve"> = 0.00, P=0.96</t>
     </r>
   </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>88 W, 30N</t>
+  </si>
+  <si>
+    <t>88°20'W, 30°10N; 87°50'W, 29°35N</t>
+  </si>
+  <si>
+    <t>bottom relief</t>
+  </si>
+  <si>
+    <t>F[3,166] = 3.71, p=0.013</t>
+  </si>
+  <si>
+    <t>significantly higher density over reef than sand habitat</t>
+  </si>
+  <si>
+    <t>Age 0.5+</t>
+  </si>
+  <si>
+    <t>trawling (yes/no)</t>
+  </si>
+  <si>
+    <t>significantly higher density over non-trawled areas</t>
+  </si>
+  <si>
+    <t>F[3,165] = 6.63, p=0.011</t>
+  </si>
+  <si>
+    <t>88°W, 30°N</t>
+  </si>
+  <si>
+    <t>fishing</t>
+  </si>
+  <si>
+    <t>abundance</t>
+  </si>
+  <si>
+    <t>summer/fall</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>Age 0</t>
+  </si>
+  <si>
+    <t>Age 1</t>
+  </si>
+  <si>
+    <t>df = 4, p&lt;0.001</t>
+  </si>
+  <si>
+    <t>df = 359, p&lt;0.001</t>
+  </si>
+  <si>
+    <t>higher densities in summer than fall</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>regression</t>
+  </si>
+  <si>
+    <t>r = 0.07, df=8, p&gt;0.05</t>
+  </si>
+  <si>
+    <t>r = 0.17, df=8, p&gt;0.05</t>
+  </si>
+  <si>
+    <t>r = -0.10, df=8, p&gt;0.05</t>
+  </si>
+  <si>
+    <t>no partial correlation</t>
+  </si>
+  <si>
+    <t>Habitat complexity</t>
+  </si>
+  <si>
+    <t>rmAnova</t>
+  </si>
+  <si>
+    <t>decreased abundance with decreased habitat complexity</t>
+  </si>
+  <si>
+    <t>df = [4,76], P&lt;0.001</t>
+  </si>
+  <si>
+    <t>df = [3,76], P&lt;0.001</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Maybe?</t>
+  </si>
+  <si>
+    <t>Not clear how to infer effect size/biomass??</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>No biomass</t>
+  </si>
+  <si>
+    <t>Spring/summer</t>
+  </si>
+  <si>
+    <t>counts</t>
+  </si>
+  <si>
+    <t>df = 2;F-Value = 114.3, p = 0.0001</t>
+  </si>
+  <si>
+    <t>df = 2;F-Value = 5.1, p &lt; 0.025</t>
+  </si>
+  <si>
+    <t>preferred largest (floated) reefs</t>
+  </si>
+  <si>
+    <t>preferred 2nd largest (unfloated) reefs, interpreted as avoidance of Age1 class</t>
+  </si>
+  <si>
+    <t>hypoxia</t>
+  </si>
+  <si>
+    <t>SEAMAP trawl</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Dist from river</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4676; F = 4.9, p&lt;0.03</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4676; F = 100.0, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4676; F = 223.9, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4676; F = 142.9, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4676; F = 210.2, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 2, Ddf = 4676; F = 15.7, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4652; F = 48.6, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4652; F = 3.6, p = 0.06</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4652; F = 22.7, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4652; F = 42.6, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4652; F = 18.0, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 2, Ddf = 4652; F = 11.4, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>shallow better</t>
+  </si>
+  <si>
+    <t>warmer better</t>
+  </si>
+  <si>
+    <t>cooler better</t>
+  </si>
+  <si>
+    <t>lower salinity better</t>
+  </si>
+  <si>
+    <t>deeper better</t>
+  </si>
+  <si>
+    <t>GLIMMIX</t>
+  </si>
+  <si>
+    <t>df = [4,94] P&lt;0.001</t>
+  </si>
+  <si>
+    <t>Multiple drivers</t>
+  </si>
+  <si>
+    <t>intraspecific competition</t>
+  </si>
+  <si>
+    <t>negative correlation btwn age 0 and age 1 densites</t>
+  </si>
+  <si>
+    <t>Outside mobile bay</t>
+  </si>
+  <si>
+    <t> r = −0.36, P = 0.004</t>
+  </si>
 </sst>
 </file>
 
@@ -1363,7 +1570,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1427,6 +1634,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1448,7 +1661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1459,6 +1672,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1739,17 +1954,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
@@ -1760,69 +1975,69 @@
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="17" width="17.42578125" customWidth="1"/>
     <col min="18" max="18" width="22.28515625" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" t="s">
         <v>111</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>112</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>113</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>114</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>115</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>117</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>118</v>
-      </c>
-      <c r="S1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -1833,22 +2048,22 @@
         <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J2" s="5">
         <v>2003</v>
@@ -1857,28 +2072,28 @@
         <v>2004</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" t="s">
         <v>174</v>
       </c>
-      <c r="N2" t="s">
-        <v>163</v>
-      </c>
-      <c r="P2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>179</v>
-      </c>
-      <c r="R2" t="s">
-        <v>136</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>176</v>
-      </c>
-      <c r="U2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1889,22 +2104,22 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J3" s="5">
         <v>2003</v>
@@ -1913,25 +2128,25 @@
         <v>2004</v>
       </c>
       <c r="L3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" t="s">
         <v>173</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>161</v>
+      </c>
+      <c r="P3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>178</v>
+      </c>
+      <c r="R3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S3" t="s">
         <v>175</v>
-      </c>
-      <c r="N3" t="s">
-        <v>163</v>
-      </c>
-      <c r="P3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>180</v>
-      </c>
-      <c r="R3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -1942,22 +2157,22 @@
         <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J4" s="3">
         <v>40269</v>
@@ -1966,22 +2181,22 @@
         <v>40483</v>
       </c>
       <c r="M4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" t="s">
         <v>123</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>122</v>
       </c>
-      <c r="P4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>125</v>
-      </c>
-      <c r="R4" t="s">
-        <v>124</v>
-      </c>
       <c r="S4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -1992,22 +2207,22 @@
         <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J5" s="3">
         <v>40269</v>
@@ -2016,25 +2231,25 @@
         <v>40483</v>
       </c>
       <c r="M5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" t="s">
+        <v>120</v>
+      </c>
+      <c r="P5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" t="s">
         <v>123</v>
       </c>
-      <c r="N5" t="s">
+      <c r="R5" t="s">
         <v>122</v>
       </c>
-      <c r="P5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>125</v>
-      </c>
-      <c r="R5" t="s">
-        <v>124</v>
-      </c>
       <c r="S5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2045,22 +2260,22 @@
         <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J6" s="3">
         <v>40269</v>
@@ -2069,22 +2284,22 @@
         <v>40483</v>
       </c>
       <c r="M6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q6" t="s">
         <v>123</v>
       </c>
-      <c r="N6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>129</v>
       </c>
-      <c r="Q6" t="s">
-        <v>125</v>
-      </c>
-      <c r="R6" t="s">
-        <v>131</v>
-      </c>
       <c r="S6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
@@ -2095,22 +2310,22 @@
         <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J7" s="3">
         <v>41913</v>
@@ -2119,22 +2334,22 @@
         <v>41913</v>
       </c>
       <c r="M7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>133</v>
+      </c>
+      <c r="R7" t="s">
         <v>134</v>
       </c>
-      <c r="N7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>135</v>
-      </c>
-      <c r="R7" t="s">
-        <v>136</v>
-      </c>
       <c r="S7" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2145,19 +2360,19 @@
         <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J8" s="4">
         <v>41009</v>
@@ -2166,28 +2381,28 @@
         <v>41555</v>
       </c>
       <c r="L8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M8" t="s">
+        <v>136</v>
+      </c>
+      <c r="N8" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q8" t="s">
         <v>138</v>
       </c>
-      <c r="N8" t="s">
-        <v>122</v>
-      </c>
-      <c r="P8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
+        <v>139</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="R8" t="s">
-        <v>141</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="T8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="18.75" x14ac:dyDescent="0.35">
@@ -2198,19 +2413,19 @@
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J9" s="4">
         <v>41009</v>
@@ -2219,51 +2434,51 @@
         <v>41555</v>
       </c>
       <c r="L9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P9" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q9" t="s">
         <v>138</v>
       </c>
-      <c r="N9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P9" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>140</v>
-      </c>
       <c r="R9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="I10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J10" s="5">
         <v>1992</v>
@@ -2272,25 +2487,25 @@
         <v>1996</v>
       </c>
       <c r="L10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P10" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>150</v>
+      </c>
+      <c r="R10" t="s">
         <v>153</v>
       </c>
-      <c r="N10" t="s">
-        <v>122</v>
-      </c>
-      <c r="P10" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="S10" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="R10" t="s">
-        <v>155</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2301,22 +2516,22 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J11" s="5">
         <v>2000</v>
@@ -2325,28 +2540,28 @@
         <v>2001</v>
       </c>
       <c r="L11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M11" t="s">
+        <v>157</v>
+      </c>
+      <c r="N11" t="s">
+        <v>156</v>
+      </c>
+      <c r="P11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q11" t="s">
         <v>168</v>
       </c>
-      <c r="M11" t="s">
+      <c r="R11" t="s">
+        <v>158</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N11" t="s">
-        <v>158</v>
-      </c>
-      <c r="P11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>170</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>160</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="T11" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2357,22 +2572,22 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J12" s="5">
         <v>2000</v>
@@ -2381,28 +2596,28 @@
         <v>2001</v>
       </c>
       <c r="L12" t="s">
+        <v>166</v>
+      </c>
+      <c r="M12" t="s">
+        <v>167</v>
+      </c>
+      <c r="N12" t="s">
+        <v>161</v>
+      </c>
+      <c r="P12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q12" t="s">
         <v>168</v>
       </c>
-      <c r="M12" t="s">
-        <v>169</v>
-      </c>
-      <c r="N12" t="s">
-        <v>163</v>
-      </c>
-      <c r="P12" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>170</v>
-      </c>
       <c r="R12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2413,22 +2628,22 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J13" s="5">
         <v>2000</v>
@@ -2437,28 +2652,28 @@
         <v>2001</v>
       </c>
       <c r="L13" t="s">
+        <v>166</v>
+      </c>
+      <c r="M13" t="s">
+        <v>163</v>
+      </c>
+      <c r="N13" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q13" t="s">
         <v>168</v>
       </c>
-      <c r="M13" t="s">
+      <c r="R13" t="s">
+        <v>158</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N13" t="s">
-        <v>163</v>
-      </c>
-      <c r="P13" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>170</v>
-      </c>
-      <c r="R13" t="s">
-        <v>160</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="T13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2469,22 +2684,22 @@
         <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J14" s="5">
         <v>1991</v>
@@ -2493,28 +2708,28 @@
         <v>2000</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s">
+        <v>181</v>
+      </c>
+      <c r="N14" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>180</v>
+      </c>
+      <c r="R14" t="s">
+        <v>134</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="T14" t="s">
         <v>183</v>
-      </c>
-      <c r="N14" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>182</v>
-      </c>
-      <c r="R14" t="s">
-        <v>136</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="T14" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
@@ -2525,22 +2740,22 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J15" s="3">
         <v>40878</v>
@@ -2549,28 +2764,28 @@
         <v>41548</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R15" t="s">
+        <v>192</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="T15" t="s">
         <v>196</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="T15" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
@@ -2581,22 +2796,22 @@
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J16" s="3">
         <v>40878</v>
@@ -2605,28 +2820,28 @@
         <v>41548</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P16" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="R16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="T16" t="s">
         <v>197</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="R16" t="s">
-        <v>196</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="T16" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2637,22 +2852,22 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J17" s="3">
         <v>40878</v>
@@ -2661,28 +2876,28 @@
         <v>41548</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="T17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2693,22 +2908,22 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J18" s="3">
         <v>40878</v>
@@ -2717,28 +2932,28 @@
         <v>41548</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q18" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="R18" t="s">
+        <v>195</v>
+      </c>
+      <c r="S18" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="R18" t="s">
-        <v>199</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="T18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2749,22 +2964,22 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J19" s="3">
         <v>40878</v>
@@ -2773,28 +2988,28 @@
         <v>41548</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="T19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2805,22 +3020,22 @@
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J20" s="3">
         <v>40878</v>
@@ -2829,28 +3044,28 @@
         <v>41548</v>
       </c>
       <c r="L20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M20" t="s">
+        <v>191</v>
+      </c>
+      <c r="N20" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="R20" t="s">
         <v>195</v>
       </c>
-      <c r="N20" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="S20" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="S20" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="T20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2861,22 +3076,22 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J21" s="3">
         <v>40878</v>
@@ -2885,28 +3100,28 @@
         <v>41548</v>
       </c>
       <c r="L21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="T21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2917,22 +3132,22 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J22" s="3">
         <v>40878</v>
@@ -2941,28 +3156,28 @@
         <v>41548</v>
       </c>
       <c r="L22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R22" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="T22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
@@ -2973,22 +3188,22 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J23" s="3">
         <v>40878</v>
@@ -2997,28 +3212,28 @@
         <v>41548</v>
       </c>
       <c r="L23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M23" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R23" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="T23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
@@ -3029,22 +3244,22 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J24" s="3">
         <v>40878</v>
@@ -3053,28 +3268,28 @@
         <v>41548</v>
       </c>
       <c r="L24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P24" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R24" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T24" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
@@ -3085,22 +3300,22 @@
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J25" s="3">
         <v>40878</v>
@@ -3109,28 +3324,28 @@
         <v>41548</v>
       </c>
       <c r="L25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M25" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P25" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R25" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="T25" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -3141,22 +3356,22 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J26" s="3">
         <v>40878</v>
@@ -3165,28 +3380,28 @@
         <v>41548</v>
       </c>
       <c r="L26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M26" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R26" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="T26" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -3197,22 +3412,22 @@
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J27" s="3">
         <v>40878</v>
@@ -3221,28 +3436,28 @@
         <v>41548</v>
       </c>
       <c r="L27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M27" t="s">
+        <v>216</v>
+      </c>
+      <c r="N27" t="s">
+        <v>120</v>
+      </c>
+      <c r="P27" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="R27" t="s">
+        <v>195</v>
+      </c>
+      <c r="S27" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="N27" t="s">
-        <v>122</v>
-      </c>
-      <c r="P27" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="R27" t="s">
-        <v>199</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="T27" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -3253,22 +3468,22 @@
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J28" s="3">
         <v>40878</v>
@@ -3277,28 +3492,28 @@
         <v>41548</v>
       </c>
       <c r="L28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M28" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R28" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T28" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -3309,22 +3524,22 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J29" s="3">
         <v>40878</v>
@@ -3333,28 +3548,28 @@
         <v>41548</v>
       </c>
       <c r="L29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M29" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S29" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="T29" t="s">
         <v>228</v>
-      </c>
-      <c r="T29" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -3365,22 +3580,22 @@
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J30" s="3">
         <v>40878</v>
@@ -3389,28 +3604,28 @@
         <v>41548</v>
       </c>
       <c r="L30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M30" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P30" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="T30" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -3421,22 +3636,22 @@
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J31" s="3">
         <v>40878</v>
@@ -3445,28 +3660,28 @@
         <v>41548</v>
       </c>
       <c r="L31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M31" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P31" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R31" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="T31" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3477,22 +3692,22 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J32" s="3">
         <v>40878</v>
@@ -3501,28 +3716,28 @@
         <v>41548</v>
       </c>
       <c r="L32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M32" t="s">
+        <v>227</v>
+      </c>
+      <c r="N32" t="s">
+        <v>161</v>
+      </c>
+      <c r="P32" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="R32" t="s">
+        <v>195</v>
+      </c>
+      <c r="S32" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="N32" t="s">
-        <v>163</v>
-      </c>
-      <c r="P32" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="R32" t="s">
-        <v>199</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="T32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3533,22 +3748,22 @@
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J33" s="3">
         <v>40878</v>
@@ -3557,28 +3772,28 @@
         <v>41548</v>
       </c>
       <c r="L33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M33" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P33" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="T33" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -3589,22 +3804,22 @@
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J34" s="3">
         <v>40878</v>
@@ -3613,28 +3828,28 @@
         <v>41548</v>
       </c>
       <c r="L34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M34" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P34" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R34" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="T34" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -3645,22 +3860,22 @@
         <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J35" s="3">
         <v>40878</v>
@@ -3669,28 +3884,28 @@
         <v>41548</v>
       </c>
       <c r="L35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M35" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="N35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P35" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="T35" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -3701,22 +3916,22 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J36" s="3">
         <v>40878</v>
@@ -3725,28 +3940,28 @@
         <v>41548</v>
       </c>
       <c r="L36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M36" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R36" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="T36" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -3757,22 +3972,22 @@
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J37" s="3">
         <v>40878</v>
@@ -3781,28 +3996,28 @@
         <v>41548</v>
       </c>
       <c r="L37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M37" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="N37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="R37" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="T37" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -3810,19 +4025,55 @@
         <v>4</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="H38" t="s">
+        <v>169</v>
+      </c>
+      <c r="I38" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38" s="5">
+        <v>2004</v>
+      </c>
+      <c r="K38" s="5">
+        <v>2005</v>
+      </c>
+      <c r="L38" t="s">
+        <v>154</v>
+      </c>
+      <c r="M38" t="s">
+        <v>241</v>
+      </c>
+      <c r="N38" t="s">
+        <v>161</v>
+      </c>
+      <c r="P38" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>240</v>
+      </c>
+      <c r="R38" t="s">
+        <v>134</v>
+      </c>
+      <c r="S38" t="s">
+        <v>242</v>
+      </c>
+      <c r="T38" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -3844,6 +4095,42 @@
       <c r="G39" t="s">
         <v>70</v>
       </c>
+      <c r="H39" t="s">
+        <v>249</v>
+      </c>
+      <c r="I39" t="s">
+        <v>244</v>
+      </c>
+      <c r="J39" s="5">
+        <v>2004</v>
+      </c>
+      <c r="K39" s="5">
+        <v>2005</v>
+      </c>
+      <c r="L39" t="s">
+        <v>154</v>
+      </c>
+      <c r="M39" t="s">
+        <v>245</v>
+      </c>
+      <c r="N39" t="s">
+        <v>161</v>
+      </c>
+      <c r="P39" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>240</v>
+      </c>
+      <c r="R39" t="s">
+        <v>134</v>
+      </c>
+      <c r="S39" t="s">
+        <v>247</v>
+      </c>
+      <c r="T39" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -3864,25 +4151,97 @@
       <c r="G40" t="s">
         <v>67</v>
       </c>
+      <c r="H40" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I40" t="s">
+        <v>253</v>
+      </c>
+      <c r="J40" s="3">
+        <v>37104</v>
+      </c>
+      <c r="K40" s="3">
+        <v>37196</v>
+      </c>
+      <c r="L40" t="s">
+        <v>251</v>
+      </c>
+      <c r="M40" t="s">
+        <v>252</v>
+      </c>
+      <c r="N40" t="s">
+        <v>250</v>
+      </c>
+      <c r="P40" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>248</v>
+      </c>
+      <c r="R40" t="s">
+        <v>134</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="T40" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I41" t="s">
+        <v>254</v>
+      </c>
+      <c r="J41" s="3">
+        <v>37104</v>
+      </c>
+      <c r="K41" s="3">
+        <v>37196</v>
+      </c>
+      <c r="L41" t="s">
+        <v>251</v>
+      </c>
+      <c r="M41" t="s">
+        <v>252</v>
+      </c>
+      <c r="N41" t="s">
+        <v>250</v>
+      </c>
+      <c r="P41" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>248</v>
+      </c>
+      <c r="R41" t="s">
+        <v>134</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="T41" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -3890,19 +4249,55 @@
         <v>4</v>
       </c>
       <c r="C42">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F42" t="s">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I42" t="s">
+        <v>259</v>
+      </c>
+      <c r="J42" s="3">
+        <v>37104</v>
+      </c>
+      <c r="K42" s="3">
+        <v>37196</v>
+      </c>
+      <c r="L42" t="s">
+        <v>251</v>
+      </c>
+      <c r="M42" t="s">
+        <v>258</v>
+      </c>
+      <c r="N42" t="s">
+        <v>250</v>
+      </c>
+      <c r="P42" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>248</v>
+      </c>
+      <c r="R42" t="s">
+        <v>261</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="T42" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -3910,19 +4305,55 @@
         <v>4</v>
       </c>
       <c r="C43">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F43" t="s">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I43" t="s">
+        <v>259</v>
+      </c>
+      <c r="J43" s="3">
+        <v>37104</v>
+      </c>
+      <c r="K43" s="3">
+        <v>37196</v>
+      </c>
+      <c r="L43" t="s">
+        <v>251</v>
+      </c>
+      <c r="M43" t="s">
+        <v>238</v>
+      </c>
+      <c r="N43" t="s">
+        <v>250</v>
+      </c>
+      <c r="P43" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>248</v>
+      </c>
+      <c r="R43" t="s">
+        <v>261</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="T43" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -3930,19 +4361,55 @@
         <v>4</v>
       </c>
       <c r="C44">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I44" t="s">
+        <v>259</v>
+      </c>
+      <c r="J44" s="3">
+        <v>37104</v>
+      </c>
+      <c r="K44" s="3">
+        <v>37196</v>
+      </c>
+      <c r="L44" t="s">
+        <v>251</v>
+      </c>
+      <c r="M44" t="s">
+        <v>260</v>
+      </c>
+      <c r="N44" t="s">
+        <v>250</v>
+      </c>
+      <c r="P44" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>248</v>
+      </c>
+      <c r="R44" t="s">
+        <v>261</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="T44" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -3950,19 +4417,55 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F45" t="s">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I45" t="s">
+        <v>253</v>
+      </c>
+      <c r="J45" s="3">
+        <v>37104</v>
+      </c>
+      <c r="K45" s="3">
+        <v>37196</v>
+      </c>
+      <c r="L45" t="s">
+        <v>251</v>
+      </c>
+      <c r="M45" t="s">
+        <v>271</v>
+      </c>
+      <c r="N45" t="s">
+        <v>250</v>
+      </c>
+      <c r="P45" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>248</v>
+      </c>
+      <c r="R45" t="s">
+        <v>267</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="T45" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -3970,19 +4473,55 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F46" t="s">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I46" t="s">
+        <v>253</v>
+      </c>
+      <c r="J46" s="3">
+        <v>37104</v>
+      </c>
+      <c r="K46" s="3">
+        <v>37196</v>
+      </c>
+      <c r="L46" t="s">
+        <v>251</v>
+      </c>
+      <c r="M46" t="s">
+        <v>266</v>
+      </c>
+      <c r="N46" t="s">
+        <v>250</v>
+      </c>
+      <c r="P46" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>248</v>
+      </c>
+      <c r="R46" t="s">
+        <v>267</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="T46" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -3990,298 +4529,1248 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>67</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I47" t="s">
+        <v>254</v>
+      </c>
+      <c r="J47" s="3">
+        <v>37104</v>
+      </c>
+      <c r="K47" s="3">
+        <v>37196</v>
+      </c>
+      <c r="L47" t="s">
+        <v>251</v>
+      </c>
+      <c r="M47" t="s">
+        <v>266</v>
+      </c>
+      <c r="N47" t="s">
+        <v>250</v>
+      </c>
+      <c r="P47" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>248</v>
+      </c>
+      <c r="R47" t="s">
+        <v>267</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T47" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>272</v>
+      </c>
+      <c r="B48" t="s">
+        <v>273</v>
       </c>
       <c r="C48">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>274</v>
+      </c>
+      <c r="B49" t="s">
+        <v>275</v>
       </c>
       <c r="C49">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="C50">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F50" t="s">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="H50" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50" t="s">
+        <v>254</v>
+      </c>
+      <c r="J50" s="3">
+        <v>35125</v>
+      </c>
+      <c r="K50" s="3">
+        <v>35309</v>
+      </c>
+      <c r="L50" t="s">
+        <v>276</v>
+      </c>
+      <c r="M50" t="s">
+        <v>184</v>
+      </c>
+      <c r="N50" t="s">
+        <v>277</v>
+      </c>
+      <c r="P50" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>248</v>
+      </c>
+      <c r="R50" t="s">
+        <v>134</v>
+      </c>
+      <c r="S50" t="s">
+        <v>278</v>
+      </c>
+      <c r="T50" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
       <c r="C51">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F51" t="s">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="H51" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51" t="s">
+        <v>253</v>
+      </c>
+      <c r="J51" s="3">
+        <v>35125</v>
+      </c>
+      <c r="K51" s="3">
+        <v>35309</v>
+      </c>
+      <c r="L51" t="s">
+        <v>276</v>
+      </c>
+      <c r="M51" t="s">
+        <v>184</v>
+      </c>
+      <c r="N51" t="s">
+        <v>277</v>
+      </c>
+      <c r="P51" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>248</v>
+      </c>
+      <c r="R51" t="s">
+        <v>134</v>
+      </c>
+      <c r="S51" t="s">
+        <v>279</v>
+      </c>
+      <c r="T51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>274</v>
+      </c>
+      <c r="B52" t="s">
+        <v>275</v>
       </c>
       <c r="C52">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F52" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
       <c r="C53">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F53" t="s">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I53" t="s">
+        <v>253</v>
+      </c>
+      <c r="J53" s="8">
+        <v>1988</v>
+      </c>
+      <c r="K53" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L53" t="s">
+        <v>251</v>
+      </c>
+      <c r="M53" t="s">
+        <v>284</v>
+      </c>
+      <c r="N53" t="s">
+        <v>120</v>
+      </c>
+      <c r="P53" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>150</v>
+      </c>
+      <c r="R53" t="s">
+        <v>304</v>
+      </c>
+      <c r="S53" t="s">
+        <v>290</v>
+      </c>
+      <c r="T53" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
       <c r="C54">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I54" t="s">
+        <v>253</v>
+      </c>
+      <c r="J54" s="8">
+        <v>1988</v>
+      </c>
+      <c r="K54" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L54" t="s">
+        <v>251</v>
+      </c>
+      <c r="M54" t="s">
+        <v>285</v>
+      </c>
+      <c r="N54" t="s">
+        <v>120</v>
+      </c>
+      <c r="P54" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>150</v>
+      </c>
+      <c r="R54" t="s">
+        <v>304</v>
+      </c>
+      <c r="S54" t="s">
+        <v>289</v>
+      </c>
+      <c r="T54" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I55" t="s">
+        <v>253</v>
+      </c>
+      <c r="J55" s="8">
+        <v>1988</v>
+      </c>
+      <c r="K55" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L55" t="s">
+        <v>251</v>
+      </c>
+      <c r="M55" t="s">
+        <v>260</v>
+      </c>
+      <c r="N55" t="s">
+        <v>120</v>
+      </c>
+      <c r="P55" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>150</v>
+      </c>
+      <c r="R55" t="s">
+        <v>304</v>
+      </c>
+      <c r="S55" t="s">
+        <v>291</v>
+      </c>
+      <c r="T55" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
       <c r="C56">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F56" t="s">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I56" t="s">
+        <v>253</v>
+      </c>
+      <c r="J56" s="8">
+        <v>1988</v>
+      </c>
+      <c r="K56" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L56" t="s">
+        <v>251</v>
+      </c>
+      <c r="M56" t="s">
+        <v>286</v>
+      </c>
+      <c r="N56" t="s">
+        <v>120</v>
+      </c>
+      <c r="P56" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>150</v>
+      </c>
+      <c r="R56" t="s">
+        <v>304</v>
+      </c>
+      <c r="S56" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
       <c r="C57">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F57" t="s">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I57" t="s">
+        <v>253</v>
+      </c>
+      <c r="J57" s="8">
+        <v>1988</v>
+      </c>
+      <c r="K57" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L57" t="s">
+        <v>251</v>
+      </c>
+      <c r="M57" t="s">
+        <v>238</v>
+      </c>
+      <c r="N57" t="s">
+        <v>120</v>
+      </c>
+      <c r="P57" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>150</v>
+      </c>
+      <c r="R57" t="s">
+        <v>304</v>
+      </c>
+      <c r="S57" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
       <c r="C58">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F58" t="s">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I58" t="s">
+        <v>253</v>
+      </c>
+      <c r="J58" s="8">
+        <v>1988</v>
+      </c>
+      <c r="K58" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L58" t="s">
+        <v>251</v>
+      </c>
+      <c r="M58" t="s">
+        <v>282</v>
+      </c>
+      <c r="N58" t="s">
+        <v>120</v>
+      </c>
+      <c r="P58" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>150</v>
+      </c>
+      <c r="R58" t="s">
+        <v>304</v>
+      </c>
+      <c r="S58" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
       <c r="C59">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I59" t="s">
+        <v>254</v>
+      </c>
+      <c r="J59" s="8">
+        <v>1988</v>
+      </c>
+      <c r="K59" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L59" t="s">
+        <v>251</v>
+      </c>
+      <c r="M59" t="s">
+        <v>284</v>
+      </c>
+      <c r="N59" t="s">
+        <v>120</v>
+      </c>
+      <c r="P59" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>150</v>
+      </c>
+      <c r="R59" t="s">
+        <v>304</v>
+      </c>
+      <c r="S59" t="s">
+        <v>293</v>
+      </c>
+      <c r="T59" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4</v>
       </c>
       <c r="C60">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="F60" t="s">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I60" t="s">
+        <v>254</v>
+      </c>
+      <c r="J60" s="8">
+        <v>1988</v>
+      </c>
+      <c r="K60" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L60" t="s">
+        <v>251</v>
+      </c>
+      <c r="M60" t="s">
+        <v>285</v>
+      </c>
+      <c r="N60" t="s">
+        <v>120</v>
+      </c>
+      <c r="P60" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>150</v>
+      </c>
+      <c r="R60" t="s">
+        <v>304</v>
+      </c>
+      <c r="S60" t="s">
+        <v>294</v>
+      </c>
+      <c r="T60" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4</v>
       </c>
       <c r="C61">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="F61" t="s">
         <v>1</v>
       </c>
       <c r="G61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I61" t="s">
+        <v>254</v>
+      </c>
+      <c r="J61" s="8">
+        <v>1988</v>
+      </c>
+      <c r="K61" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L61" t="s">
+        <v>251</v>
+      </c>
+      <c r="M61" t="s">
+        <v>260</v>
+      </c>
+      <c r="N61" t="s">
+        <v>120</v>
+      </c>
+      <c r="P61" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>150</v>
+      </c>
+      <c r="R61" t="s">
+        <v>304</v>
+      </c>
+      <c r="S61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>125</v>
+      </c>
+      <c r="D62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I62" t="s">
+        <v>254</v>
+      </c>
+      <c r="J62" s="8">
+        <v>1988</v>
+      </c>
+      <c r="K62" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L62" t="s">
+        <v>251</v>
+      </c>
+      <c r="M62" t="s">
+        <v>286</v>
+      </c>
+      <c r="N62" t="s">
+        <v>120</v>
+      </c>
+      <c r="P62" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>150</v>
+      </c>
+      <c r="R62" t="s">
+        <v>304</v>
+      </c>
+      <c r="S62" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>125</v>
+      </c>
+      <c r="D63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I63" t="s">
+        <v>254</v>
+      </c>
+      <c r="J63" s="8">
+        <v>1988</v>
+      </c>
+      <c r="K63" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L63" t="s">
+        <v>251</v>
+      </c>
+      <c r="M63" t="s">
+        <v>238</v>
+      </c>
+      <c r="N63" t="s">
+        <v>120</v>
+      </c>
+      <c r="P63" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>150</v>
+      </c>
+      <c r="R63" t="s">
+        <v>304</v>
+      </c>
+      <c r="S63" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>125</v>
+      </c>
+      <c r="D64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>52</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I64" t="s">
+        <v>254</v>
+      </c>
+      <c r="J64" s="8">
+        <v>1988</v>
+      </c>
+      <c r="K64" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L64" t="s">
+        <v>251</v>
+      </c>
+      <c r="M64" t="s">
+        <v>282</v>
+      </c>
+      <c r="N64" t="s">
+        <v>120</v>
+      </c>
+      <c r="P64" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>150</v>
+      </c>
+      <c r="R64" t="s">
+        <v>304</v>
+      </c>
+      <c r="S64" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>121</v>
+      </c>
+      <c r="D65" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="I65" t="s">
+        <v>253</v>
+      </c>
+      <c r="J65" s="8">
+        <v>2010</v>
+      </c>
+      <c r="K65" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N65" t="s">
+        <v>161</v>
+      </c>
+      <c r="P65" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>309</v>
+      </c>
+      <c r="R65" t="s">
+        <v>261</v>
+      </c>
+      <c r="S65" t="s">
+        <v>310</v>
+      </c>
+      <c r="T65" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>205</v>
+      </c>
+      <c r="D68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>77</v>
+      </c>
+      <c r="D69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>103</v>
+      </c>
+      <c r="D70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>146</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>107</v>
+      </c>
+      <c r="D72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>194</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>24</v>
+      </c>
+      <c r="D74" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>130</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>97</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>81</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>51</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>137</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>102</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Meta-analysis/csvs/GoodPapers.xlsx
+++ b/Meta-analysis/csvs/GoodPapers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="CombinedTitles_manualreview (2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="353">
   <si>
     <t>video estimates of red snapper and associated fish assemblages on sand, shell, and natural reef habitats in the north-central gulf of mexico</t>
   </si>
@@ -80,15 +80,6 @@
     <t>The effects of epibenthic communities on reef fishes in the northern Gulf of Mexico</t>
   </si>
   <si>
-    <t>spatial and dietary overlap creates potential for competition between red snapper (lutjanus campechanus) and vermilion snapper (rhomboplites aurorubens)</t>
-  </si>
-  <si>
-    <t>Davis, William T.; Drymon, J. Marcus; Powers, Sean P.</t>
-  </si>
-  <si>
-    <t>Spatial and Dietary Overlap Creates Potential for Competition between Red Snapper (Lutjanus campechanus) and Vermilion snapper (Rhomboplites aurorubens)</t>
-  </si>
-  <si>
     <t>seasonal and spatial variation in the biomass and size frequency distribution of fish associated with oil and gas platforms in the northern gulf of mexico</t>
   </si>
   <si>
@@ -146,15 +137,6 @@
     <t>Nursery habitats, growth rates, and seasonality of age-0 red snapper, Lutjanus campechanus, in the northeast Gulf of Mexico</t>
   </si>
   <si>
-    <t>movement and growth of red snapper, lutjanus campechanus, from an artificial reef area in the northeastern gulf of mexico</t>
-  </si>
-  <si>
-    <t>Szedlmayer, Stephen T.,Shipp, Robert L.</t>
-  </si>
-  <si>
-    <t>Movement and growth of red snapper, Lutjanus campechanus, from an artificial reef area in the northeastern Gulf of Mexico</t>
-  </si>
-  <si>
     <t>influences of artificial reefs on juvenile red snapper along the mississippi gulf coast</t>
   </si>
   <si>
@@ -164,15 +146,6 @@
     <t>Influences of Artificial Reefs on Juvenile Red Snapper along the Mississippi Gulf Coast</t>
   </si>
   <si>
-    <t>influence of reef location on artificial-reef fish assemblages in the northcentral gulf of mexico</t>
-  </si>
-  <si>
-    <t>Strelcheck, AJ; Cowan, JH; Shah, A</t>
-  </si>
-  <si>
-    <t>Influence of reef location on artificial-reef fish assemblages in the northcentral Gulf of Mexico</t>
-  </si>
-  <si>
     <t>influence of age-1 conspecifics, sediment type, dissolved oxygen, and the deepwater horizon oil spill on recruitment of age-0 red snapper in the northeast gulf of mexico during 2010 and 2011</t>
   </si>
   <si>
@@ -191,15 +164,6 @@
     <t>Habitat Use by Juvenile Red Snapper in the Northern Gulf of Mexico: Ontogeny, Seasonality, and the Effects of Hypoxia</t>
   </si>
   <si>
-    <t>habitat use and the effect of shrimp trawling on fish and invertebrate communities over the northern gulf of mexico continental shelf</t>
-  </si>
-  <si>
-    <t>Wells, R. J. David; Cowan, James H., Jr.; Patterson, William F., III</t>
-  </si>
-  <si>
-    <t>Habitat use and the effect of shrimp trawling on fish and invertebrate communities over the northern Gulf of Mexico continental shelf</t>
-  </si>
-  <si>
     <t>habitat preferences and site fidelity of juvenile red snapper (lutjanus campechanus)</t>
   </si>
   <si>
@@ -209,15 +173,6 @@
     <t>Habitat preferences and site fidelity of juvenile red snapper (Lutjanus campechanus)</t>
   </si>
   <si>
-    <t>fine-scale movements and home ranges of red snapper around artificial reefs in the northern gulf of mexico</t>
-  </si>
-  <si>
-    <t>Piraino, Maria N.; Szedlmayer, Stephen T.</t>
-  </si>
-  <si>
-    <t>Fine-Scale Movements and Home Ranges of Red Snapper around Artificial Reefs in the Northern Gulf of Mexico</t>
-  </si>
-  <si>
     <t>estimates of shrimp trawl bycatch of red snapper (lutjanus campechanus) in the gulf of mexico</t>
   </si>
   <si>
@@ -414,10 +369,6 @@
   </si>
   <si>
     <t>Anova F-value, pearson's correlation</t>
-  </si>
-  <si>
-    <t>F2,27= 4.25, P&lt;0.025; Pearson’s CorCoef [r]=0.48,
-P=0.008)</t>
   </si>
   <si>
     <t>Vertical line</t>
@@ -671,9 +622,6 @@
     <t>96 18'W 28 44'N; 94 09'W 29 07'N; 93 59'W 29 22'N;</t>
   </si>
   <si>
-    <t>SEAMAP trawls</t>
-  </si>
-  <si>
     <t>W 89°, N 30° 10', to W 88° N29°</t>
   </si>
   <si>
@@ -1452,123 +1400,439 @@
     <t>Not clear how to infer effect size/biomass??</t>
   </si>
   <si>
+    <t>Spring/summer</t>
+  </si>
+  <si>
+    <t>counts</t>
+  </si>
+  <si>
+    <t>df = 2;F-Value = 114.3, p = 0.0001</t>
+  </si>
+  <si>
+    <t>df = 2;F-Value = 5.1, p &lt; 0.025</t>
+  </si>
+  <si>
+    <t>preferred largest (floated) reefs</t>
+  </si>
+  <si>
+    <t>preferred 2nd largest (unfloated) reefs, interpreted as avoidance of Age1 class</t>
+  </si>
+  <si>
+    <t>hypoxia</t>
+  </si>
+  <si>
+    <t>SEAMAP trawl</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Dist from river</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4676; F = 4.9, p&lt;0.03</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4676; F = 100.0, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4676; F = 223.9, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4676; F = 142.9, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4676; F = 210.2, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 2, Ddf = 4676; F = 15.7, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4652; F = 48.6, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4652; F = 3.6, p = 0.06</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4652; F = 22.7, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4652; F = 42.6, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 1, Ddf = 4652; F = 18.0, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>Ndf = 2, Ddf = 4652; F = 11.4, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>shallow better</t>
+  </si>
+  <si>
+    <t>warmer better</t>
+  </si>
+  <si>
+    <t>cooler better</t>
+  </si>
+  <si>
+    <t>lower salinity better</t>
+  </si>
+  <si>
+    <t>deeper better</t>
+  </si>
+  <si>
+    <t>GLIMMIX</t>
+  </si>
+  <si>
+    <t>df = [4,94] P&lt;0.001</t>
+  </si>
+  <si>
+    <t>Multiple drivers</t>
+  </si>
+  <si>
+    <t>intraspecific competition</t>
+  </si>
+  <si>
+    <t>negative correlation btwn age 0 and age 1 densites</t>
+  </si>
+  <si>
+    <t>Outside mobile bay</t>
+  </si>
+  <si>
+    <t> r = −0.36, P = 0.004</t>
+  </si>
+  <si>
+    <t>conspecifics</t>
+  </si>
+  <si>
+    <t>It's really about reef design specifics, not environment</t>
+  </si>
+  <si>
+    <t>Age-0</t>
+  </si>
+  <si>
+    <t>P&lt;=0.05</t>
+  </si>
+  <si>
+    <t>Not a lot of stats, higher catch in summer than fall</t>
+  </si>
+  <si>
+    <t>Dauphin Island</t>
+  </si>
+  <si>
+    <t>distance to large reef</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>not significant</t>
+  </si>
+  <si>
+    <t>Computer counts</t>
+  </si>
+  <si>
+    <t>relative abundance</t>
+  </si>
+  <si>
+    <t>T-test</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 3.33, P &lt; 0.01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1, 36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 19.54, P &lt; 0.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1, 36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 10.02, P = 0.003</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1, 36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 21.60, P &lt; 0.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 4.98, P &lt; 0.001</t>
+    </r>
+  </si>
+  <si>
+    <t>Predation, artificial reef</t>
+  </si>
+  <si>
+    <t>recreational fishing</t>
+  </si>
+  <si>
+    <t>mark recapture</t>
+  </si>
+  <si>
+    <t>Northern Gulf shelf: LA to FL</t>
+  </si>
+  <si>
+    <t>not available online.</t>
+  </si>
+  <si>
+    <t>Trawl</t>
+  </si>
+  <si>
+    <t>catch rate</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>P = 0.000428, F = 17.7, d.f. = 1, 20</t>
+  </si>
+  <si>
+    <t>30N, 88.4W</t>
+  </si>
+  <si>
+    <t>28N, 94.5W</t>
+  </si>
+  <si>
+    <t>P&lt;0.001, R2 = 0.685</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>No biomass</t>
-  </si>
-  <si>
-    <t>Spring/summer</t>
-  </si>
-  <si>
-    <t>counts</t>
-  </si>
-  <si>
-    <t>df = 2;F-Value = 114.3, p = 0.0001</t>
-  </si>
-  <si>
-    <t>df = 2;F-Value = 5.1, p &lt; 0.025</t>
-  </si>
-  <si>
-    <t>preferred largest (floated) reefs</t>
-  </si>
-  <si>
-    <t>preferred 2nd largest (unfloated) reefs, interpreted as avoidance of Age1 class</t>
-  </si>
-  <si>
-    <t>hypoxia</t>
-  </si>
-  <si>
-    <t>SEAMAP trawl</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Dist from river</t>
-  </si>
-  <si>
-    <t>Ndf = 1, Ddf = 4676; F = 4.9, p&lt;0.03</t>
-  </si>
-  <si>
-    <t>Ndf = 1, Ddf = 4676; F = 100.0, p&lt;0.01</t>
-  </si>
-  <si>
-    <t>Ndf = 1, Ddf = 4676; F = 223.9, p&lt;0.01</t>
-  </si>
-  <si>
-    <t>Ndf = 1, Ddf = 4676; F = 142.9, p&lt;0.01</t>
-  </si>
-  <si>
-    <t>Ndf = 1, Ddf = 4676; F = 210.2, p&lt;0.01</t>
-  </si>
-  <si>
-    <t>Ndf = 2, Ddf = 4676; F = 15.7, p&lt;0.01</t>
-  </si>
-  <si>
-    <t>Ndf = 1, Ddf = 4652; F = 48.6, p&lt;0.01</t>
-  </si>
-  <si>
-    <t>Ndf = 1, Ddf = 4652; F = 3.6, p = 0.06</t>
-  </si>
-  <si>
-    <t>Ndf = 1, Ddf = 4652; F = 22.7, p&lt;0.01</t>
-  </si>
-  <si>
-    <t>Ndf = 1, Ddf = 4652; F = 42.6, p&lt;0.01</t>
-  </si>
-  <si>
-    <t>Ndf = 1, Ddf = 4652; F = 18.0, p&lt;0.01</t>
-  </si>
-  <si>
-    <t>Ndf = 2, Ddf = 4652; F = 11.4, p&lt;0.01</t>
-  </si>
-  <si>
-    <t>shallow better</t>
-  </si>
-  <si>
-    <t>warmer better</t>
-  </si>
-  <si>
-    <t>cooler better</t>
-  </si>
-  <si>
-    <t>lower salinity better</t>
-  </si>
-  <si>
-    <t>deeper better</t>
-  </si>
-  <si>
-    <t>GLIMMIX</t>
-  </si>
-  <si>
-    <t>df = [4,94] P&lt;0.001</t>
-  </si>
-  <si>
-    <t>Multiple drivers</t>
-  </si>
-  <si>
-    <t>intraspecific competition</t>
-  </si>
-  <si>
-    <t>negative correlation btwn age 0 and age 1 densites</t>
-  </si>
-  <si>
-    <t>Outside mobile bay</t>
-  </si>
-  <si>
-    <t> r = −0.36, P = 0.004</t>
+    <t>No red-snapper specific values</t>
+  </si>
+  <si>
+    <t>ANOSIM</t>
+  </si>
+  <si>
+    <t>epibenthic community</t>
+  </si>
+  <si>
+    <t>October 2003 November/December 2003, May 2004</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1, 38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 4.4, P = 0.042</t>
+    </r>
+  </si>
+  <si>
+    <t>higher abundance when epibenthic commuinity was allowed to  form on reef.</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>No environmental drivers</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>No effect size</t>
+  </si>
+  <si>
+    <t>N 26° 31.535’–W 97° 09.215’</t>
+  </si>
+  <si>
+    <t>pseudo-F(4,15) = 1.072, P = 0.391</t>
+  </si>
+  <si>
+    <t>pseudo-F(4,15) = 2.095, P = 0.0009</t>
+  </si>
+  <si>
+    <t>Permanova</t>
+  </si>
+  <si>
+    <t>habitat complexity</t>
+  </si>
+  <si>
+    <t>intermediate structural complexity associated with highest abundance, but difference was not significant</t>
+  </si>
+  <si>
+    <t>Video sampling</t>
+  </si>
+  <si>
+    <t>30N, 88.1W</t>
+  </si>
+  <si>
+    <t>P=0.0318</t>
+  </si>
+  <si>
+    <t>higher abundance over reef than shell or sand</t>
+  </si>
+  <si>
+    <t>No significant effect of season</t>
+  </si>
+  <si>
+    <t>Juvenile and adult combined</t>
+  </si>
+  <si>
+    <t>MIN index ("minimum count")</t>
+  </si>
+  <si>
+    <t>P=0.8224</t>
+  </si>
+  <si>
+    <t>Joint encounter model</t>
+  </si>
+  <si>
+    <t>no effect of artificial reef refuge on survival</t>
+  </si>
+  <si>
+    <t>no biomass, more about mortality</t>
+  </si>
+  <si>
+    <t>r =0.48, P=0.008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="yyyy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1635,21 +1899,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1657,25 +1928,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1954,25 +2249,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="60.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="11" width="13.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="10" max="11" width="13.85546875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
     <col min="16" max="17" width="17.42578125" customWidth="1"/>
     <col min="18" max="18" width="22.28515625" customWidth="1"/>
     <col min="19" max="19" width="23.5703125" customWidth="1"/>
@@ -1980,120 +2275,123 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" t="s">
         <v>103</v>
-      </c>
-      <c r="D1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>115</v>
-      </c>
-      <c r="R1" t="s">
-        <v>116</v>
-      </c>
-      <c r="S1" t="s">
-        <v>117</v>
-      </c>
-      <c r="T1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>315</v>
+      </c>
       <c r="C2">
         <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J2" s="5">
+        <v>154</v>
+      </c>
+      <c r="J2" s="6">
         <v>2003</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <v>2004</v>
       </c>
       <c r="L2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="M2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="N2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" t="s">
         <v>161</v>
       </c>
-      <c r="P2" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>177</v>
-      </c>
       <c r="R2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="S2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="U2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -2104,49 +2402,49 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="5">
+        <v>154</v>
+      </c>
+      <c r="J3" s="6">
         <v>2003</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>2004</v>
       </c>
       <c r="L3" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="M3" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="N3" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="Q3" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="R3" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="S3" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -2157,46 +2455,46 @@
         <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="3">
+        <v>110</v>
+      </c>
+      <c r="J4" s="15">
         <v>40269</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="15">
         <v>40483</v>
       </c>
       <c r="M4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="N4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="Q4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="R4" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="S4" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -2207,49 +2505,49 @@
         <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" s="3">
+        <v>110</v>
+      </c>
+      <c r="J5" s="15">
         <v>40269</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="15">
         <v>40483</v>
       </c>
       <c r="M5" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Q5" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="R5" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="S5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="T5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,46 +2558,46 @@
         <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J6" s="3">
+        <v>111</v>
+      </c>
+      <c r="J6" s="15">
         <v>40269</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="15">
         <v>40483</v>
       </c>
       <c r="M6" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="Q6" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="R6" t="s">
-        <v>129</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
+      </c>
+      <c r="S6" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
@@ -2310,46 +2608,46 @@
         <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" s="3">
+        <v>110</v>
+      </c>
+      <c r="J7" s="15">
         <v>41913</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="15">
         <v>41913</v>
       </c>
       <c r="M7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="Q7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="R7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2360,49 +2658,52 @@
         <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J8" s="4">
+        <v>132</v>
+      </c>
+      <c r="J8" s="16">
         <v>41009</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="16">
         <v>41555</v>
       </c>
       <c r="L8" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="N8" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="Q8" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="R8" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="T8" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="18.75" x14ac:dyDescent="0.35">
@@ -2413,99 +2714,102 @@
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>104</v>
       </c>
       <c r="I9" t="s">
-        <v>148</v>
-      </c>
-      <c r="J9" s="4">
+        <v>132</v>
+      </c>
+      <c r="J9" s="16">
         <v>41009</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="16">
         <v>41555</v>
       </c>
       <c r="L9" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="N9" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="Q9" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="R9" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="I10" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="5">
+        <v>131</v>
+      </c>
+      <c r="J10" s="6">
         <v>1992</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>1996</v>
       </c>
       <c r="L10" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P10" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="Q10" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="R10" t="s">
-        <v>153</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>152</v>
+        <v>137</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2516,52 +2820,52 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="I11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J11" s="5">
+        <v>131</v>
+      </c>
+      <c r="J11" s="6">
         <v>2000</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>2001</v>
       </c>
       <c r="L11" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="N11" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="Q11" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="R11" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="T11" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2572,52 +2876,52 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="I12" t="s">
-        <v>147</v>
-      </c>
-      <c r="J12" s="5">
+        <v>131</v>
+      </c>
+      <c r="J12" s="6">
         <v>2000</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <v>2001</v>
       </c>
       <c r="L12" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="Q12" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="R12" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="T12" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2628,52 +2932,52 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K13" s="6">
+        <v>2001</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="s">
         <v>147</v>
       </c>
-      <c r="J13" s="5">
-        <v>2000</v>
-      </c>
-      <c r="K13" s="5">
-        <v>2001</v>
-      </c>
-      <c r="L13" t="s">
-        <v>166</v>
-      </c>
-      <c r="M13" t="s">
-        <v>163</v>
-      </c>
       <c r="N13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="Q13" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="R13" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="T13" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2684,52 +2988,52 @@
         <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
-      </c>
-      <c r="J14" s="5">
+        <v>131</v>
+      </c>
+      <c r="J14" s="6">
         <v>1991</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <v>2000</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="Q14" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="R14" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="T14" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
@@ -2740,52 +3044,52 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
-      </c>
-      <c r="J15" s="3">
+        <v>110</v>
+      </c>
+      <c r="J15" s="14">
         <v>40878</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="14">
         <v>41548</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>239</v>
+        <v>176</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R15" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="T15" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
@@ -2796,52 +3100,52 @@
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="3">
+        <v>110</v>
+      </c>
+      <c r="J16" s="14">
         <v>40878</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="14">
         <v>41548</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>176</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R16" t="s">
+        <v>175</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="S16" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="T16" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2852,52 +3156,52 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" s="3">
+        <v>110</v>
+      </c>
+      <c r="J17" s="14">
         <v>40878</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="14">
         <v>41548</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M17" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="N17" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>239</v>
+        <v>176</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R17" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="T17" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2908,52 +3212,52 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J18" s="3">
+        <v>110</v>
+      </c>
+      <c r="J18" s="14">
         <v>40878</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="14">
         <v>41548</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M18" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>239</v>
+        <v>176</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R18" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="T18" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2964,52 +3268,52 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I19" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="3">
+        <v>110</v>
+      </c>
+      <c r="J19" s="14">
         <v>40878</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="14">
         <v>41548</v>
       </c>
       <c r="L19" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>113</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R19" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="T19" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -3020,52 +3324,52 @@
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I20" t="s">
-        <v>125</v>
-      </c>
-      <c r="J20" s="3">
+        <v>110</v>
+      </c>
+      <c r="J20" s="14">
         <v>40878</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="14">
         <v>41548</v>
       </c>
       <c r="L20" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M20" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="N20" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>113</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R20" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="T20" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -3076,52 +3380,52 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
-      </c>
-      <c r="J21" s="3">
+        <v>184</v>
+      </c>
+      <c r="J21" s="14">
         <v>40878</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="14">
         <v>41548</v>
       </c>
       <c r="L21" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M21" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R21" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="T21" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -3132,52 +3436,52 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
-      </c>
-      <c r="J22" s="3">
+        <v>184</v>
+      </c>
+      <c r="J22" s="14">
         <v>40878</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="14">
         <v>41548</v>
       </c>
       <c r="L22" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M22" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="N22" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R22" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="T22" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
@@ -3188,52 +3492,52 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
-      </c>
-      <c r="J23" s="3">
+        <v>189</v>
+      </c>
+      <c r="J23" s="14">
         <v>40878</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="14">
         <v>41548</v>
       </c>
       <c r="L23" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N23" t="s">
+        <v>145</v>
+      </c>
+      <c r="P23" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="R23" t="s">
+        <v>175</v>
+      </c>
+      <c r="S23" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="N23" t="s">
-        <v>161</v>
-      </c>
-      <c r="P23" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="R23" t="s">
-        <v>192</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="T23" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
@@ -3244,52 +3548,52 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
-      </c>
-      <c r="J24" s="3">
+        <v>189</v>
+      </c>
+      <c r="J24" s="14">
         <v>40878</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="14">
         <v>41548</v>
       </c>
       <c r="L24" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M24" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="N24" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R24" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="T24" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
@@ -3300,52 +3604,52 @@
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
-      </c>
-      <c r="J25" s="3">
+        <v>189</v>
+      </c>
+      <c r="J25" s="14">
         <v>40878</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="14">
         <v>41548</v>
       </c>
       <c r="L25" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M25" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="N25" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="P25" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R25" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="T25" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -3356,52 +3660,52 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H26" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I26" t="s">
-        <v>125</v>
-      </c>
-      <c r="J26" s="3">
+        <v>110</v>
+      </c>
+      <c r="J26" s="14">
         <v>40878</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="14">
         <v>41548</v>
       </c>
       <c r="L26" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M26" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="N26" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>239</v>
+        <v>176</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R26" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="T26" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -3412,52 +3716,52 @@
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I27" t="s">
-        <v>125</v>
-      </c>
-      <c r="J27" s="3">
+        <v>110</v>
+      </c>
+      <c r="J27" s="14">
         <v>40878</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="14">
         <v>41548</v>
       </c>
       <c r="L27" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M27" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="N27" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R27" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="T27" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -3468,52 +3772,52 @@
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H28" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28" s="3">
+        <v>110</v>
+      </c>
+      <c r="J28" s="14">
         <v>40878</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="14">
         <v>41548</v>
       </c>
       <c r="L28" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M28" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="N28" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="P28" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R28" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="T28" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -3524,52 +3828,52 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J29" s="3">
+        <v>110</v>
+      </c>
+      <c r="J29" s="14">
         <v>40878</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="14">
         <v>41548</v>
       </c>
       <c r="L29" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M29" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="N29" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>239</v>
+        <v>176</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R29" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="T29" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -3580,52 +3884,52 @@
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H30" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I30" t="s">
-        <v>125</v>
-      </c>
-      <c r="J30" s="3">
+        <v>110</v>
+      </c>
+      <c r="J30" s="14">
         <v>40878</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="14">
         <v>41548</v>
       </c>
       <c r="L30" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M30" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="N30" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R30" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="T30" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -3636,52 +3940,52 @@
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H31" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I31" t="s">
-        <v>125</v>
-      </c>
-      <c r="J31" s="3">
+        <v>110</v>
+      </c>
+      <c r="J31" s="14">
         <v>40878</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="14">
         <v>41548</v>
       </c>
       <c r="L31" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M31" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="N31" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="P31" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R31" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="T31" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3692,52 +3996,52 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H32" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I32" t="s">
-        <v>125</v>
-      </c>
-      <c r="J32" s="3">
+        <v>110</v>
+      </c>
+      <c r="J32" s="14">
         <v>40878</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="14">
         <v>41548</v>
       </c>
       <c r="L32" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M32" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="N32" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="P32" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R32" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="T32" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3748,52 +4052,52 @@
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H33" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J33" s="3">
+        <v>110</v>
+      </c>
+      <c r="J33" s="14">
         <v>40878</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="14">
         <v>41548</v>
       </c>
       <c r="L33" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M33" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="N33" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="P33" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R33" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="T33" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -3804,52 +4108,52 @@
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H34" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I34" t="s">
-        <v>125</v>
-      </c>
-      <c r="J34" s="3">
+        <v>110</v>
+      </c>
+      <c r="J34" s="14">
         <v>40878</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="14">
         <v>41548</v>
       </c>
       <c r="L34" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M34" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="N34" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R34" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="T34" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -3860,52 +4164,52 @@
         <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H35" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I35" t="s">
-        <v>125</v>
-      </c>
-      <c r="J35" s="3">
+        <v>110</v>
+      </c>
+      <c r="J35" s="14">
         <v>40878</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="14">
         <v>41548</v>
       </c>
       <c r="L35" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M35" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="N35" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R35" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="T35" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -3916,52 +4220,52 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H36" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I36" t="s">
-        <v>125</v>
-      </c>
-      <c r="J36" s="3">
+        <v>110</v>
+      </c>
+      <c r="J36" s="14">
         <v>40878</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="14">
         <v>41548</v>
       </c>
       <c r="L36" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M36" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="N36" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>239</v>
+        <v>176</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R36" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="T36" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -3972,52 +4276,52 @@
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H37" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I37" t="s">
-        <v>125</v>
-      </c>
-      <c r="J37" s="3">
+        <v>110</v>
+      </c>
+      <c r="J37" s="14">
         <v>40878</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="14">
         <v>41548</v>
       </c>
       <c r="L37" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M37" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="N37" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>239</v>
+        <v>176</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="R37" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="T37" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -4028,52 +4332,52 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H38" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="I38" t="s">
-        <v>126</v>
-      </c>
-      <c r="J38" s="5">
+        <v>111</v>
+      </c>
+      <c r="J38" s="6">
         <v>2004</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="6">
         <v>2005</v>
       </c>
       <c r="L38" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M38" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="N38" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="Q38" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="R38" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="S38" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="T38" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -4084,52 +4388,52 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H39" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="I39" t="s">
-        <v>244</v>
-      </c>
-      <c r="J39" s="5">
+        <v>227</v>
+      </c>
+      <c r="J39" s="6">
         <v>2004</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="6">
         <v>2005</v>
       </c>
       <c r="L39" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M39" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="N39" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="Q39" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="R39" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="S39" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="T39" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -4140,52 +4444,52 @@
         <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>306</v>
+        <v>52</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I40" t="s">
-        <v>253</v>
-      </c>
-      <c r="J40" s="3">
+        <v>236</v>
+      </c>
+      <c r="J40" s="14">
         <v>37104</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="14">
         <v>37196</v>
       </c>
       <c r="L40" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M40" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="N40" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="P40" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="Q40" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="R40" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="T40" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -4196,52 +4500,52 @@
         <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>67</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>306</v>
+        <v>52</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I41" t="s">
-        <v>254</v>
-      </c>
-      <c r="J41" s="3">
+        <v>237</v>
+      </c>
+      <c r="J41" s="14">
         <v>37104</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="14">
         <v>37196</v>
       </c>
       <c r="L41" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M41" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="N41" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="P41" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="Q41" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="R41" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="T41" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -4252,52 +4556,52 @@
         <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>306</v>
+        <v>52</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I42" t="s">
-        <v>259</v>
-      </c>
-      <c r="J42" s="3">
+        <v>242</v>
+      </c>
+      <c r="J42" s="14">
         <v>37104</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="14">
         <v>37196</v>
       </c>
       <c r="L42" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M42" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="N42" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="Q42" t="s">
+        <v>231</v>
+      </c>
+      <c r="R42" t="s">
+        <v>244</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="T42" t="s">
         <v>248</v>
-      </c>
-      <c r="R42" t="s">
-        <v>261</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="T42" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -4308,52 +4612,52 @@
         <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>67</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>306</v>
+        <v>52</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I43" t="s">
-        <v>259</v>
-      </c>
-      <c r="J43" s="3">
+        <v>242</v>
+      </c>
+      <c r="J43" s="14">
         <v>37104</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="14">
         <v>37196</v>
       </c>
       <c r="L43" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M43" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N43" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="P43" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="Q43" t="s">
+        <v>231</v>
+      </c>
+      <c r="R43" t="s">
+        <v>244</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T43" t="s">
         <v>248</v>
-      </c>
-      <c r="R43" t="s">
-        <v>261</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="T43" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -4364,52 +4668,52 @@
         <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>67</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>306</v>
+        <v>52</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I44" t="s">
-        <v>259</v>
-      </c>
-      <c r="J44" s="3">
+        <v>242</v>
+      </c>
+      <c r="J44" s="14">
         <v>37104</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="14">
         <v>37196</v>
       </c>
       <c r="L44" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M44" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="N44" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="Q44" t="s">
+        <v>231</v>
+      </c>
+      <c r="R44" t="s">
+        <v>244</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="T44" t="s">
         <v>248</v>
-      </c>
-      <c r="R44" t="s">
-        <v>261</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="T44" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -4420,52 +4724,52 @@
         <v>94</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>306</v>
+        <v>52</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I45" t="s">
-        <v>253</v>
-      </c>
-      <c r="J45" s="3">
+        <v>236</v>
+      </c>
+      <c r="J45" s="14">
         <v>37104</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="14">
         <v>37196</v>
       </c>
       <c r="L45" t="s">
+        <v>234</v>
+      </c>
+      <c r="M45" t="s">
+        <v>254</v>
+      </c>
+      <c r="N45" t="s">
+        <v>233</v>
+      </c>
+      <c r="P45" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>231</v>
+      </c>
+      <c r="R45" t="s">
+        <v>250</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="T45" t="s">
         <v>251</v>
-      </c>
-      <c r="M45" t="s">
-        <v>271</v>
-      </c>
-      <c r="N45" t="s">
-        <v>250</v>
-      </c>
-      <c r="P45" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>248</v>
-      </c>
-      <c r="R45" t="s">
-        <v>267</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="T45" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -4476,52 +4780,52 @@
         <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F46" t="s">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>306</v>
+        <v>52</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I46" t="s">
-        <v>253</v>
-      </c>
-      <c r="J46" s="3">
+        <v>236</v>
+      </c>
+      <c r="J46" s="14">
         <v>37104</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="14">
         <v>37196</v>
       </c>
       <c r="L46" t="s">
+        <v>234</v>
+      </c>
+      <c r="M46" t="s">
+        <v>249</v>
+      </c>
+      <c r="N46" t="s">
+        <v>233</v>
+      </c>
+      <c r="P46" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>231</v>
+      </c>
+      <c r="R46" t="s">
+        <v>250</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="T46" t="s">
         <v>251</v>
-      </c>
-      <c r="M46" t="s">
-        <v>266</v>
-      </c>
-      <c r="N46" t="s">
-        <v>250</v>
-      </c>
-      <c r="P46" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>248</v>
-      </c>
-      <c r="R46" t="s">
-        <v>267</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="T46" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -4532,98 +4836,133 @@
         <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>306</v>
+        <v>52</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I47" t="s">
-        <v>254</v>
-      </c>
-      <c r="J47" s="3">
+        <v>237</v>
+      </c>
+      <c r="J47" s="14">
         <v>37104</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="14">
         <v>37196</v>
       </c>
       <c r="L47" t="s">
+        <v>234</v>
+      </c>
+      <c r="M47" t="s">
+        <v>249</v>
+      </c>
+      <c r="N47" t="s">
+        <v>233</v>
+      </c>
+      <c r="P47" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>231</v>
+      </c>
+      <c r="R47" t="s">
+        <v>250</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="T47" t="s">
         <v>251</v>
       </c>
-      <c r="M47" t="s">
-        <v>266</v>
-      </c>
-      <c r="N47" t="s">
-        <v>250</v>
-      </c>
-      <c r="P47" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>248</v>
-      </c>
-      <c r="R47" t="s">
-        <v>267</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="T47" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>272</v>
-      </c>
-      <c r="B48" t="s">
-        <v>273</v>
-      </c>
-      <c r="C48">
+    </row>
+    <row r="48" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C48" s="9">
         <v>28</v>
       </c>
-      <c r="D48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="D48" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G48" t="s">
-        <v>64</v>
-      </c>
+      <c r="G48" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>274</v>
-      </c>
-      <c r="B49" t="s">
-        <v>275</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F49" t="s">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I49" t="s">
+        <v>237</v>
+      </c>
+      <c r="J49" s="14">
+        <v>35125</v>
+      </c>
+      <c r="K49" s="14">
+        <v>35309</v>
+      </c>
+      <c r="L49" t="s">
+        <v>257</v>
+      </c>
+      <c r="M49" t="s">
+        <v>167</v>
+      </c>
+      <c r="N49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P49" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R49" t="s">
+        <v>118</v>
+      </c>
+      <c r="S49" t="s">
+        <v>259</v>
+      </c>
+      <c r="T49" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -4634,52 +4973,52 @@
         <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
-      </c>
-      <c r="H50" t="s">
-        <v>119</v>
+        <v>46</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="I50" t="s">
-        <v>254</v>
-      </c>
-      <c r="J50" s="3">
+        <v>236</v>
+      </c>
+      <c r="J50" s="14">
         <v>35125</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="14">
         <v>35309</v>
       </c>
       <c r="L50" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="M50" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="N50" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="Q50" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="R50" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="S50" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="T50" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -4687,78 +5026,111 @@
         <v>4</v>
       </c>
       <c r="C51">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>58</v>
-      </c>
-      <c r="H51" t="s">
-        <v>119</v>
+        <v>43</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I51" t="s">
-        <v>253</v>
-      </c>
-      <c r="J51" s="3">
-        <v>35125</v>
-      </c>
-      <c r="K51" s="3">
-        <v>35309</v>
+        <v>236</v>
+      </c>
+      <c r="J51" s="11">
+        <v>1988</v>
+      </c>
+      <c r="K51" s="11">
+        <v>2009</v>
       </c>
       <c r="L51" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="M51" t="s">
-        <v>184</v>
+        <v>265</v>
       </c>
       <c r="N51" t="s">
-        <v>277</v>
+        <v>105</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="Q51" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="R51" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="S51" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="T51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>274</v>
-      </c>
-      <c r="B52" t="s">
-        <v>275</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="I52" t="s">
+        <v>236</v>
+      </c>
+      <c r="J52" s="11">
+        <v>1988</v>
+      </c>
+      <c r="K52" s="11">
+        <v>2009</v>
+      </c>
+      <c r="L52" t="s">
+        <v>234</v>
+      </c>
+      <c r="M52" t="s">
+        <v>266</v>
+      </c>
+      <c r="N52" t="s">
+        <v>105</v>
+      </c>
+      <c r="P52" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R52" t="s">
+        <v>285</v>
+      </c>
+      <c r="S52" t="s">
+        <v>270</v>
+      </c>
+      <c r="T52" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -4769,52 +5141,52 @@
         <v>125</v>
       </c>
       <c r="D53" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>52</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>306</v>
+        <v>43</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I53" t="s">
-        <v>253</v>
-      </c>
-      <c r="J53" s="8">
+        <v>236</v>
+      </c>
+      <c r="J53" s="11">
         <v>1988</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="11">
         <v>2009</v>
       </c>
       <c r="L53" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M53" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="N53" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P53" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>134</v>
+      </c>
+      <c r="R53" t="s">
+        <v>285</v>
+      </c>
+      <c r="S53" t="s">
+        <v>272</v>
+      </c>
+      <c r="T53" t="s">
         <v>283</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>150</v>
-      </c>
-      <c r="R53" t="s">
-        <v>304</v>
-      </c>
-      <c r="S53" t="s">
-        <v>290</v>
-      </c>
-      <c r="T53" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -4825,52 +5197,49 @@
         <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>306</v>
+        <v>43</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I54" t="s">
-        <v>253</v>
-      </c>
-      <c r="J54" s="8">
+        <v>236</v>
+      </c>
+      <c r="J54" s="11">
         <v>1988</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="11">
         <v>2009</v>
       </c>
       <c r="L54" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M54" t="s">
+        <v>267</v>
+      </c>
+      <c r="N54" t="s">
+        <v>105</v>
+      </c>
+      <c r="P54" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>134</v>
+      </c>
+      <c r="R54" t="s">
         <v>285</v>
       </c>
-      <c r="N54" t="s">
-        <v>120</v>
-      </c>
-      <c r="P54" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>150</v>
-      </c>
-      <c r="R54" t="s">
-        <v>304</v>
-      </c>
       <c r="S54" t="s">
-        <v>289</v>
-      </c>
-      <c r="T54" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -4881,52 +5250,49 @@
         <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>52</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>306</v>
+        <v>43</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I55" t="s">
-        <v>253</v>
-      </c>
-      <c r="J55" s="8">
+        <v>236</v>
+      </c>
+      <c r="J55" s="11">
         <v>1988</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="11">
         <v>2009</v>
       </c>
       <c r="L55" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M55" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="N55" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P55" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="Q55" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="R55" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="S55" t="s">
-        <v>291</v>
-      </c>
-      <c r="T55" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -4937,49 +5303,49 @@
         <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>52</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>306</v>
+        <v>43</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I56" t="s">
-        <v>253</v>
-      </c>
-      <c r="J56" s="8">
+        <v>236</v>
+      </c>
+      <c r="J56" s="11">
         <v>1988</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="11">
         <v>2009</v>
       </c>
       <c r="L56" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M56" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="N56" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P56" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="Q56" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="R56" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="S56" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -4990,49 +5356,52 @@
         <v>125</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>52</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>306</v>
+        <v>43</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I57" t="s">
-        <v>253</v>
-      </c>
-      <c r="J57" s="8">
+        <v>237</v>
+      </c>
+      <c r="J57" s="11">
         <v>1988</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="11">
         <v>2009</v>
       </c>
       <c r="L57" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M57" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="N57" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P57" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="Q57" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="R57" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="S57" t="s">
-        <v>287</v>
+        <v>274</v>
+      </c>
+      <c r="T57" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -5043,49 +5412,52 @@
         <v>125</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>52</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>306</v>
+        <v>43</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I58" t="s">
-        <v>253</v>
-      </c>
-      <c r="J58" s="8">
+        <v>237</v>
+      </c>
+      <c r="J58" s="11">
         <v>1988</v>
       </c>
-      <c r="K58" s="8">
+      <c r="K58" s="11">
         <v>2009</v>
       </c>
       <c r="L58" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M58" t="s">
+        <v>266</v>
+      </c>
+      <c r="N58" t="s">
+        <v>105</v>
+      </c>
+      <c r="P58" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>134</v>
+      </c>
+      <c r="R58" t="s">
+        <v>285</v>
+      </c>
+      <c r="S58" t="s">
+        <v>275</v>
+      </c>
+      <c r="T58" t="s">
         <v>282</v>
-      </c>
-      <c r="N58" t="s">
-        <v>120</v>
-      </c>
-      <c r="P58" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>150</v>
-      </c>
-      <c r="R58" t="s">
-        <v>304</v>
-      </c>
-      <c r="S58" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -5096,52 +5468,49 @@
         <v>125</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>52</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>306</v>
+        <v>43</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I59" t="s">
-        <v>254</v>
-      </c>
-      <c r="J59" s="8">
+        <v>237</v>
+      </c>
+      <c r="J59" s="11">
         <v>1988</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K59" s="11">
         <v>2009</v>
       </c>
       <c r="L59" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M59" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="N59" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="Q59" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="R59" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="S59" t="s">
-        <v>293</v>
-      </c>
-      <c r="T59" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -5152,52 +5521,49 @@
         <v>125</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>52</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>306</v>
+        <v>43</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I60" t="s">
-        <v>254</v>
-      </c>
-      <c r="J60" s="8">
+        <v>237</v>
+      </c>
+      <c r="J60" s="11">
         <v>1988</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K60" s="11">
         <v>2009</v>
       </c>
       <c r="L60" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M60" t="s">
+        <v>267</v>
+      </c>
+      <c r="N60" t="s">
+        <v>105</v>
+      </c>
+      <c r="P60" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>134</v>
+      </c>
+      <c r="R60" t="s">
         <v>285</v>
       </c>
-      <c r="N60" t="s">
-        <v>120</v>
-      </c>
-      <c r="P60" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>150</v>
-      </c>
-      <c r="R60" t="s">
-        <v>304</v>
-      </c>
       <c r="S60" t="s">
-        <v>294</v>
-      </c>
-      <c r="T60" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -5208,49 +5574,49 @@
         <v>125</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>52</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>306</v>
+        <v>43</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I61" t="s">
-        <v>254</v>
-      </c>
-      <c r="J61" s="8">
+        <v>237</v>
+      </c>
+      <c r="J61" s="11">
         <v>1988</v>
       </c>
-      <c r="K61" s="8">
+      <c r="K61" s="11">
         <v>2009</v>
       </c>
       <c r="L61" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M61" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="N61" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="Q61" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="R61" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="S61" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -5261,49 +5627,49 @@
         <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>52</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>306</v>
+        <v>43</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="I62" t="s">
-        <v>254</v>
-      </c>
-      <c r="J62" s="8">
+        <v>237</v>
+      </c>
+      <c r="J62" s="11">
         <v>1988</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K62" s="11">
         <v>2009</v>
       </c>
       <c r="L62" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M62" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="N62" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P62" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="Q62" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="R62" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="S62" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -5311,224 +5677,295 @@
         <v>4</v>
       </c>
       <c r="C63">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>306</v>
+        <v>40</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="I63" t="s">
-        <v>254</v>
-      </c>
-      <c r="J63" s="8">
-        <v>1988</v>
-      </c>
-      <c r="K63" s="8">
-        <v>2009</v>
-      </c>
-      <c r="L63" t="s">
-        <v>251</v>
+        <v>236</v>
+      </c>
+      <c r="J63" s="11">
+        <v>2010</v>
+      </c>
+      <c r="K63" s="11">
+        <v>2011</v>
       </c>
       <c r="M63" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="N63" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="Q63" t="s">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="R63" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="S63" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64">
-        <v>125</v>
-      </c>
-      <c r="D64" t="s">
-        <v>54</v>
-      </c>
-      <c r="E64" t="s">
-        <v>53</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1</v>
-      </c>
-      <c r="G64" t="s">
-        <v>52</v>
+        <v>291</v>
+      </c>
+      <c r="T63" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C64" s="9">
+        <v>38</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="I64" t="s">
-        <v>254</v>
-      </c>
-      <c r="J64" s="8">
-        <v>1988</v>
-      </c>
-      <c r="K64" s="8">
-        <v>2009</v>
-      </c>
-      <c r="L64" t="s">
-        <v>251</v>
-      </c>
-      <c r="M64" t="s">
-        <v>282</v>
-      </c>
-      <c r="N64" t="s">
-        <v>120</v>
-      </c>
-      <c r="P64" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>150</v>
-      </c>
-      <c r="R64" t="s">
-        <v>304</v>
-      </c>
-      <c r="S64" t="s">
-        <v>298</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
       <c r="C65">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>49</v>
-      </c>
-      <c r="H65" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" t="s">
+        <v>287</v>
+      </c>
+      <c r="I65" t="s">
+        <v>294</v>
+      </c>
+      <c r="J65" s="6">
+        <v>1994</v>
+      </c>
+      <c r="K65" s="6">
+        <v>1995</v>
+      </c>
+      <c r="L65" t="s">
+        <v>138</v>
+      </c>
+      <c r="M65" t="s">
+        <v>235</v>
+      </c>
+      <c r="N65" t="s">
+        <v>105</v>
+      </c>
+      <c r="P65" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>290</v>
+      </c>
+      <c r="R65" t="s">
+        <v>299</v>
+      </c>
+      <c r="S65" t="s">
+        <v>295</v>
+      </c>
+      <c r="T65" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>103</v>
+      </c>
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" t="s">
+        <v>311</v>
+      </c>
+      <c r="I66" t="s">
+        <v>294</v>
+      </c>
+      <c r="J66" s="6">
+        <v>2008</v>
+      </c>
+      <c r="K66" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L66" t="s">
+        <v>300</v>
+      </c>
+      <c r="M66" t="s">
+        <v>298</v>
+      </c>
+      <c r="N66" t="s">
+        <v>140</v>
+      </c>
+      <c r="P66" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>297</v>
+      </c>
+      <c r="R66" t="s">
+        <v>299</v>
+      </c>
+      <c r="S66" t="s">
         <v>307</v>
       </c>
-      <c r="I65" t="s">
-        <v>253</v>
-      </c>
-      <c r="J65" s="8">
-        <v>2010</v>
-      </c>
-      <c r="K65" s="8">
-        <v>2011</v>
-      </c>
-      <c r="N65" t="s">
-        <v>161</v>
-      </c>
-      <c r="P65" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q65" t="s">
+    </row>
+    <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>103</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" t="s">
+        <v>311</v>
+      </c>
+      <c r="I67" t="s">
+        <v>294</v>
+      </c>
+      <c r="J67" s="6">
+        <v>2009</v>
+      </c>
+      <c r="K67" s="6">
+        <v>2009</v>
+      </c>
+      <c r="L67" t="s">
+        <v>300</v>
+      </c>
+      <c r="M67" t="s">
+        <v>298</v>
+      </c>
+      <c r="N67" t="s">
+        <v>140</v>
+      </c>
+      <c r="P67" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>297</v>
+      </c>
+      <c r="R67" t="s">
+        <v>299</v>
+      </c>
+      <c r="S67" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>103</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" t="s">
+        <v>311</v>
+      </c>
+      <c r="I68" t="s">
+        <v>294</v>
+      </c>
+      <c r="J68" s="6">
+        <v>2008</v>
+      </c>
+      <c r="K68" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L68" t="s">
+        <v>301</v>
+      </c>
+      <c r="M68" t="s">
+        <v>298</v>
+      </c>
+      <c r="N68" t="s">
+        <v>140</v>
+      </c>
+      <c r="P68" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>297</v>
+      </c>
+      <c r="R68" t="s">
+        <v>299</v>
+      </c>
+      <c r="S68" t="s">
         <v>309</v>
-      </c>
-      <c r="R65" t="s">
-        <v>261</v>
-      </c>
-      <c r="S65" t="s">
-        <v>310</v>
-      </c>
-      <c r="T65" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66">
-        <v>9</v>
-      </c>
-      <c r="D66" t="s">
-        <v>48</v>
-      </c>
-      <c r="E66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F66" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67">
-        <v>38</v>
-      </c>
-      <c r="D67" t="s">
-        <v>45</v>
-      </c>
-      <c r="E67" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" t="s">
-        <v>43</v>
-      </c>
-      <c r="H67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68">
-        <v>205</v>
-      </c>
-      <c r="D68" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" t="s">
-        <v>40</v>
-      </c>
-      <c r="H68" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -5536,19 +5973,52 @@
         <v>4</v>
       </c>
       <c r="C69">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="H69" t="s">
+        <v>311</v>
+      </c>
+      <c r="I69" t="s">
+        <v>111</v>
+      </c>
+      <c r="J69" s="6">
+        <v>2008</v>
+      </c>
+      <c r="K69" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L69" t="s">
+        <v>300</v>
+      </c>
+      <c r="M69" t="s">
+        <v>298</v>
+      </c>
+      <c r="N69" t="s">
+        <v>140</v>
+      </c>
+      <c r="P69" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>297</v>
+      </c>
+      <c r="R69" t="s">
+        <v>299</v>
+      </c>
+      <c r="S69" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -5559,16 +6029,49 @@
         <v>103</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="H70" t="s">
+        <v>311</v>
+      </c>
+      <c r="I70" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" s="6">
+        <v>2009</v>
+      </c>
+      <c r="K70" s="6">
+        <v>2009</v>
+      </c>
+      <c r="L70" t="s">
+        <v>300</v>
+      </c>
+      <c r="M70" t="s">
+        <v>298</v>
+      </c>
+      <c r="N70" t="s">
+        <v>140</v>
+      </c>
+      <c r="P70" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>297</v>
+      </c>
+      <c r="R70" t="s">
+        <v>299</v>
+      </c>
+      <c r="S70" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -5576,7 +6079,7 @@
         <v>4</v>
       </c>
       <c r="C71">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
         <v>33</v>
@@ -5590,45 +6093,144 @@
       <c r="G71" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>311</v>
+      </c>
+      <c r="I71" t="s">
+        <v>111</v>
+      </c>
+      <c r="J71" s="6">
+        <v>2008</v>
+      </c>
+      <c r="K71" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L71" t="s">
+        <v>301</v>
+      </c>
+      <c r="M71" t="s">
+        <v>298</v>
+      </c>
+      <c r="N71" t="s">
+        <v>140</v>
+      </c>
+      <c r="P71" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>297</v>
+      </c>
+      <c r="R71" t="s">
+        <v>299</v>
+      </c>
+      <c r="S71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>4</v>
       </c>
       <c r="C72">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H72" t="s">
+        <v>311</v>
+      </c>
+      <c r="I72" t="s">
+        <v>294</v>
+      </c>
+      <c r="J72" s="6">
+        <v>2009</v>
+      </c>
+      <c r="K72" s="6">
+        <v>2009</v>
+      </c>
+      <c r="L72" t="s">
+        <v>300</v>
+      </c>
+      <c r="M72" t="s">
+        <v>298</v>
+      </c>
+      <c r="N72" t="s">
+        <v>304</v>
+      </c>
+      <c r="P72" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>297</v>
+      </c>
+      <c r="R72" t="s">
+        <v>305</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>4</v>
       </c>
       <c r="C73">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E73" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="H73" t="s">
+        <v>311</v>
+      </c>
+      <c r="I73" t="s">
+        <v>294</v>
+      </c>
+      <c r="J73" s="6">
+        <v>2008</v>
+      </c>
+      <c r="K73" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L73" t="s">
+        <v>301</v>
+      </c>
+      <c r="M73" t="s">
+        <v>298</v>
+      </c>
+      <c r="N73" t="s">
+        <v>304</v>
+      </c>
+      <c r="P73" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>297</v>
+      </c>
+      <c r="R73" t="s">
+        <v>305</v>
+      </c>
+      <c r="S73" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -5636,19 +6238,49 @@
         <v>4</v>
       </c>
       <c r="C74">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>131</v>
+      </c>
+      <c r="J74" s="6">
+        <v>2007</v>
+      </c>
+      <c r="K74" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L74" t="s">
+        <v>301</v>
+      </c>
+      <c r="M74" t="s">
+        <v>318</v>
+      </c>
+      <c r="N74" t="s">
+        <v>317</v>
+      </c>
+      <c r="P74" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>320</v>
+      </c>
+      <c r="R74" t="s">
+        <v>299</v>
+      </c>
+      <c r="S74" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -5656,122 +6288,503 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
         <v>1</v>
       </c>
       <c r="G75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>131</v>
+      </c>
+      <c r="J75" s="6">
+        <v>2008</v>
+      </c>
+      <c r="K75" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="M75" t="s">
+        <v>318</v>
+      </c>
+      <c r="N75" t="s">
+        <v>317</v>
+      </c>
+      <c r="P75" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>321</v>
+      </c>
+      <c r="R75" t="s">
+        <v>244</v>
+      </c>
+      <c r="S75" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C76" s="9">
+        <v>107</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J76" s="12">
+        <v>2008</v>
+      </c>
+      <c r="K76" s="12">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C77" s="9">
+        <v>194</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+    </row>
+    <row r="78" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C78" s="9">
+        <v>24</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76">
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+    </row>
+    <row r="79" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
         <v>97</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D79" t="s">
         <v>17</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E79" t="s">
         <v>16</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>81</v>
-      </c>
-      <c r="D77" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" t="s">
-        <v>1</v>
-      </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78">
-        <v>51</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79">
-        <v>137</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" t="s">
-        <v>6</v>
       </c>
       <c r="F79" t="s">
         <v>1</v>
       </c>
       <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" t="s">
+        <v>104</v>
+      </c>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+      <c r="J79" s="6">
+        <v>2003</v>
+      </c>
+      <c r="K79" s="6">
+        <v>2004</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M79" t="s">
+        <v>326</v>
+      </c>
+      <c r="N79" t="s">
+        <v>140</v>
+      </c>
+      <c r="P79" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>297</v>
+      </c>
+      <c r="R79" t="s">
+        <v>325</v>
+      </c>
+      <c r="S79" t="s">
+        <v>328</v>
+      </c>
+      <c r="T79" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C80" s="9">
+        <v>81</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J80" s="9">
+        <v>2001</v>
+      </c>
+      <c r="K80" s="9">
+        <v>2002</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C81" s="9">
+        <v>51</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J81" s="12">
+        <v>2005</v>
+      </c>
+      <c r="K81" s="12">
+        <v>2007</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q81" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="R81" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="S81" s="13"/>
+      <c r="T81" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>137</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80">
+      <c r="H82" t="s">
+        <v>104</v>
+      </c>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+      <c r="J82">
+        <v>2014</v>
+      </c>
+      <c r="K82">
+        <v>2014</v>
+      </c>
+      <c r="L82" t="s">
+        <v>150</v>
+      </c>
+      <c r="M82" t="s">
+        <v>339</v>
+      </c>
+      <c r="N82" t="s">
+        <v>140</v>
+      </c>
+      <c r="P82" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>335</v>
+      </c>
+      <c r="R82" t="s">
+        <v>338</v>
+      </c>
+      <c r="S82" t="s">
+        <v>337</v>
+      </c>
+      <c r="T82" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>137</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" t="s">
+        <v>104</v>
+      </c>
+      <c r="I83" t="s">
+        <v>131</v>
+      </c>
+      <c r="J83">
+        <v>2014</v>
+      </c>
+      <c r="K83">
+        <v>2014</v>
+      </c>
+      <c r="L83" t="s">
+        <v>150</v>
+      </c>
+      <c r="M83" t="s">
+        <v>339</v>
+      </c>
+      <c r="N83" t="s">
+        <v>140</v>
+      </c>
+      <c r="P83" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>335</v>
+      </c>
+      <c r="R83" t="s">
+        <v>338</v>
+      </c>
+      <c r="S83" t="s">
+        <v>336</v>
+      </c>
+      <c r="T83" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
         <v>102</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D84" t="s">
         <v>3</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E84" t="s">
         <v>2</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F84" t="s">
         <v>1</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G84" t="s">
         <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>104</v>
+      </c>
+      <c r="I84" t="s">
+        <v>346</v>
+      </c>
+      <c r="J84" s="6">
+        <v>2004</v>
+      </c>
+      <c r="K84" s="6">
+        <v>2005</v>
+      </c>
+      <c r="L84" t="s">
+        <v>138</v>
+      </c>
+      <c r="M84" t="s">
+        <v>153</v>
+      </c>
+      <c r="N84" t="s">
+        <v>304</v>
+      </c>
+      <c r="P84" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>342</v>
+      </c>
+      <c r="R84" t="s">
+        <v>347</v>
+      </c>
+      <c r="S84" t="s">
+        <v>343</v>
+      </c>
+      <c r="T84" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>102</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>104</v>
+      </c>
+      <c r="I85" t="s">
+        <v>346</v>
+      </c>
+      <c r="J85" s="6">
+        <v>2004</v>
+      </c>
+      <c r="K85" s="6">
+        <v>2005</v>
+      </c>
+      <c r="L85" t="s">
+        <v>138</v>
+      </c>
+      <c r="M85" t="s">
+        <v>153</v>
+      </c>
+      <c r="N85" t="s">
+        <v>304</v>
+      </c>
+      <c r="P85" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>342</v>
+      </c>
+      <c r="R85" t="s">
+        <v>347</v>
+      </c>
+      <c r="S85" t="s">
+        <v>348</v>
+      </c>
+      <c r="T85" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
